--- a/excell/clients.xlsx
+++ b/excell/clients.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="150">
   <si>
     <t>ID</t>
   </si>
@@ -413,6 +413,57 @@
   </si>
   <si>
     <t>2024-11-06 20:17:51.052704</t>
+  </si>
+  <si>
+    <t>77714981589</t>
+  </si>
+  <si>
+    <t>2024-11-06 20:21:42.618572</t>
+  </si>
+  <si>
+    <t>77786124022</t>
+  </si>
+  <si>
+    <t>2024-11-06 21:58:38.609436</t>
+  </si>
+  <si>
+    <t>77082180128</t>
+  </si>
+  <si>
+    <t>2024-11-06 22:27:42.012751</t>
+  </si>
+  <si>
+    <t>87760078703</t>
+  </si>
+  <si>
+    <t>2024-11-06 22:49:29.220907</t>
+  </si>
+  <si>
+    <t>Amangali_89</t>
+  </si>
+  <si>
+    <t>77026989654</t>
+  </si>
+  <si>
+    <t>2024-11-07 04:03:13.699127</t>
+  </si>
+  <si>
+    <t>77082496980</t>
+  </si>
+  <si>
+    <t>2024-11-07 04:31:12.146303</t>
+  </si>
+  <si>
+    <t>77753450689</t>
+  </si>
+  <si>
+    <t>2024-11-07 06:22:19.493847</t>
+  </si>
+  <si>
+    <t>77014387035</t>
+  </si>
+  <si>
+    <t>2024-11-07 06:43:32.222881</t>
   </si>
 </sst>
 </file>
@@ -744,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1966,6 +2017,169 @@
         <v>11</v>
       </c>
     </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>6775879767</v>
+      </c>
+      <c r="D60" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" t="s">
+        <v>134</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5053131861</v>
+      </c>
+      <c r="D61" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>792715058</v>
+      </c>
+      <c r="D62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1106397218</v>
+      </c>
+      <c r="D63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>787255908</v>
+      </c>
+      <c r="C64" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5378819162</v>
+      </c>
+      <c r="D65" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1260567915</v>
+      </c>
+      <c r="D66" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>6606013069</v>
+      </c>
+      <c r="D67" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
